--- a/MATLAB/network_analysis/spec.xlsx
+++ b/MATLAB/network_analysis/spec.xlsx
@@ -991,7 +991,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1031,6 +1031,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1176,6 +1177,14 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Testing</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Accuracy </a:t>
+                </a:r>
                 <a:r>
                   <a:rPr lang="en-GB"/>
                   <a:t>Varience</a:t>
@@ -1952,15 +1961,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:colOff>1495424</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>231912</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>107673</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2247,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
